--- a/trunk/rill-analysis/rill-analysis-report/src/test/resources/test-luopan-rt.xlsx
+++ b/trunk/rill-analysis/rill-analysis-report/src/test/resources/test-luopan-rt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="67">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,37 +280,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>00：00-01：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example/pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example/line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example/ind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example/rtdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineId</t>
+  </si>
+  <si>
+    <t>indId</t>
+  </si>
+  <si>
+    <t>posIds</t>
+  </si>
+  <si>
     <t>)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00：00-01：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>example/pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>example/line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>example/ind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>example/rtdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lineId</t>
-  </si>
-  <si>
-    <t>indId</t>
-  </si>
-  <si>
-    <t>posIds</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -440,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -583,17 +587,6 @@
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top style="thin">
-        <color theme="3" tint="0.79998168889431442"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
       </right>
       <top style="thin">
         <color theme="3" tint="0.79998168889431442"/>
@@ -749,15 +742,48 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14990691854609822"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="3" tint="0.79998168889431442"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -770,7 +796,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,84 +860,93 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="11">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1077,36 +1112,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1660,11 +1665,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82781696"/>
-        <c:axId val="82783232"/>
+        <c:axId val="78081024"/>
+        <c:axId val="78099200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82781696"/>
+        <c:axId val="78081024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,14 +1678,14 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82783232"/>
+        <c:crossAx val="78099200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82783232"/>
+        <c:axId val="78099200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1694,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82781696"/>
+        <c:crossAx val="78081024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1707,7 +1712,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000766" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000766" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000844" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000844" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1723,7 +1728,7 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -2051,7 +2056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Y51"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2063,41 +2068,43 @@
     <col min="13" max="13" width="1.125" customWidth="1"/>
     <col min="14" max="16" width="6.125" customWidth="1"/>
     <col min="17" max="17" width="1.5" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="1.5" customWidth="1"/>
-    <col min="20" max="22" width="6.125" customWidth="1"/>
-    <col min="23" max="23" width="1.5" customWidth="1"/>
-    <col min="24" max="24" width="8.625" customWidth="1"/>
-    <col min="25" max="25" width="1.5" customWidth="1"/>
+    <col min="20" max="20" width="2.375" customWidth="1"/>
+    <col min="21" max="23" width="6.125" customWidth="1"/>
+    <col min="24" max="24" width="1.5" customWidth="1"/>
+    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.625" customWidth="1"/>
+    <col min="27" max="27" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="3.75" customHeight="1">
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="42" t="str">
         <f>_input!$A2&amp;"+"&amp;_input!$A3&amp;"+趋势图"</f>
         <v>商业产品线+分析指标+趋势图</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="2:17">
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="39" t="str">
+      <c r="B4" s="30" t="str">
         <f>_input!$B3</f>
         <v>点击消费</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="2:17" ht="3" customHeight="1">
@@ -2136,46 +2143,46 @@
     <row r="16" spans="2:17">
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="1:27">
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="2:25">
+    <row r="18" spans="1:27">
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="2:25">
+    <row r="19" spans="1:27">
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="2:25">
+    <row r="20" spans="1:27">
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="2:25">
+    <row r="21" spans="1:27">
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="2:25">
+    <row r="22" spans="1:27">
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="2:25">
+    <row r="23" spans="1:27">
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="2:25">
-      <c r="B24" s="25" t="str">
+    <row r="24" spans="1:27">
+      <c r="B24" s="42" t="str">
         <f>_input!$B3&amp;"分小时数据表"</f>
         <v>点击消费分小时数据表</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
       <c r="Q24" s="5"/>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:25" ht="3.75" customHeight="1"/>
-    <row r="26" spans="2:25" ht="3" customHeight="1">
+    <row r="25" spans="1:27" ht="3.75" customHeight="1"/>
+    <row r="26" spans="1:27" ht="3" customHeight="1">
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -2200,1267 +2207,1615 @@
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
-    </row>
-    <row r="27" spans="2:25" ht="35.25" customHeight="1">
-      <c r="B27" s="40" t="s">
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+    </row>
+    <row r="27" spans="1:27" ht="35.25" customHeight="1">
+      <c r="B27" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="30" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="26" t="s">
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33" t="s">
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="34"/>
-    </row>
-    <row r="28" spans="2:25">
-      <c r="B28" s="44"/>
-      <c r="C28" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="35">
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="41"/>
+    </row>
+    <row r="28" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A28" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33">
         <f>_input!$B5</f>
         <v>3344110</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="28">
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="35">
         <f>_input!$C5</f>
         <v>3224110</v>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
       <c r="Q28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="22">
         <f>_input!$F5</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S28" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T28" s="28">
+        <v>65</v>
+      </c>
+      <c r="T28" s="24">
+        <f>_input!$F5</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U28" s="47">
         <f>_input!$D5</f>
         <v>3334440</v>
       </c>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X28" s="23">
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y28" s="22">
         <f>_input!$G5</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y28" s="22" t="s">
+      <c r="Z28" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA28" s="24">
+        <f>_input!$G5</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="2:25">
-      <c r="B29" s="44"/>
-      <c r="C29" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="35">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33">
         <f>_input!$B6</f>
         <v>3323110</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="28">
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="35">
         <f>_input!$C6</f>
         <v>4343110</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
       <c r="Q29" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="22">
         <f>_input!$F6</f>
         <v>-0.23485474694401021</v>
       </c>
       <c r="S29" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T29" s="28">
+        <v>65</v>
+      </c>
+      <c r="T29" s="24">
+        <f>_input!$F6</f>
+        <v>-0.23485474694401021</v>
+      </c>
+      <c r="U29" s="47">
         <f>_input!$D6</f>
         <v>3323440</v>
       </c>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X29" s="23">
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y29" s="22">
         <f>_input!$G6</f>
         <v>-9.9294706689456724E-5</v>
       </c>
-      <c r="Y29" s="22" t="s">
+      <c r="Z29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA29" s="24">
+        <f>_input!$G6</f>
+        <v>-9.9294706689456724E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="2:25">
-      <c r="B30" s="44"/>
-      <c r="C30" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="35">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33">
         <f>_input!$B7</f>
         <v>3344110</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="28">
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="35">
         <f>_input!$C7</f>
         <v>3224110</v>
       </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
       <c r="Q30" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R30" s="23">
+      <c r="R30" s="22">
         <f>_input!$F7</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S30" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T30" s="28">
+        <v>65</v>
+      </c>
+      <c r="T30" s="24">
+        <f>_input!$F7</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U30" s="47">
         <f>_input!$D7</f>
         <v>3324440</v>
       </c>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X30" s="23">
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y30" s="22">
         <f>_input!$G7</f>
         <v>5.9167859850079996E-3</v>
       </c>
-      <c r="Y30" s="22" t="s">
+      <c r="Z30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA30" s="24">
+        <f>_input!$G7</f>
+        <v>5.9167859850079996E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="2:25">
-      <c r="B31" s="44"/>
-      <c r="C31" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="35">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33">
         <f>_input!$B8</f>
         <v>3344110</v>
       </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="28">
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="35">
         <f>_input!$C8</f>
         <v>3224110</v>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
       <c r="Q31" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="22">
         <f>_input!$F8</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S31" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T31" s="28">
+        <v>65</v>
+      </c>
+      <c r="T31" s="24">
+        <f>_input!$F8</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U31" s="47">
         <f>_input!$D8</f>
         <v>3334440</v>
       </c>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X31" s="23">
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y31" s="22">
         <f>_input!$G8</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y31" s="22" t="s">
+      <c r="Z31" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA31" s="24">
+        <f>_input!$G8</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A32" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="2:25">
-      <c r="B32" s="44"/>
-      <c r="C32" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="35">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33">
         <f>_input!$B9</f>
         <v>3344110</v>
       </c>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="28">
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="35">
         <f>_input!$C9</f>
         <v>3664110</v>
       </c>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
       <c r="Q32" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R32" s="23">
+      <c r="R32" s="22">
         <f>_input!$F9</f>
         <v>-8.7333622625958229E-2</v>
       </c>
       <c r="S32" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T32" s="28">
+        <v>65</v>
+      </c>
+      <c r="T32" s="24">
+        <f>_input!$F9</f>
+        <v>-8.7333622625958229E-2</v>
+      </c>
+      <c r="U32" s="47">
         <f>_input!$D9</f>
         <v>3244440</v>
       </c>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X32" s="23">
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y32" s="22">
         <f>_input!$G9</f>
         <v>3.0720247561982994E-2</v>
       </c>
-      <c r="Y32" s="22" t="s">
+      <c r="Z32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA32" s="24">
+        <f>_input!$G9</f>
+        <v>3.0720247561982994E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="2:25">
-      <c r="B33" s="44"/>
-      <c r="C33" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="35">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33">
         <f>_input!$B10</f>
         <v>3344110</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="28">
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="35">
         <f>_input!$C10</f>
         <v>3224110</v>
       </c>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
       <c r="Q33" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="22">
         <f>_input!$F10</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S33" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T33" s="28">
+        <v>65</v>
+      </c>
+      <c r="T33" s="24">
+        <f>_input!$F10</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U33" s="47">
         <f>_input!$D10</f>
         <v>3334440</v>
       </c>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X33" s="23">
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y33" s="22">
         <f>_input!$G10</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y33" s="22" t="s">
+      <c r="Z33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA33" s="24">
+        <f>_input!$G10</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A34" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="2:25">
-      <c r="B34" s="44"/>
-      <c r="C34" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="35">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33">
         <f>_input!$B11</f>
         <v>4344110</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="28">
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="35">
         <f>_input!$C11</f>
         <v>4324110</v>
       </c>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
       <c r="Q34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="22">
         <f>_input!$F11</f>
         <v>4.6252292379240778E-3</v>
       </c>
       <c r="S34" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T34" s="28">
+        <v>65</v>
+      </c>
+      <c r="T34" s="24">
+        <f>_input!$F11</f>
+        <v>4.6252292379240778E-3</v>
+      </c>
+      <c r="U34" s="47">
         <f>_input!$D11</f>
         <v>3334440</v>
       </c>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X34" s="23">
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y34" s="22">
         <f>_input!$G11</f>
         <v>0.30280047024387913</v>
       </c>
-      <c r="Y34" s="22" t="s">
+      <c r="Z34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA34" s="24">
+        <f>_input!$G11</f>
+        <v>0.30280047024387913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="2:25">
-      <c r="B35" s="44"/>
-      <c r="C35" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="35">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33">
         <f>_input!$B12</f>
         <v>3344110</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="28">
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="35">
         <f>_input!$C12</f>
         <v>3224110</v>
       </c>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
       <c r="Q35" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="22">
         <f>_input!$F12</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S35" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T35" s="28">
+        <v>65</v>
+      </c>
+      <c r="T35" s="24">
+        <f>_input!$F12</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U35" s="47">
         <f>_input!$D12</f>
         <v>3554440</v>
       </c>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X35" s="23">
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y35" s="22">
         <f>_input!$G12</f>
         <v>-5.9173878304317973E-2</v>
       </c>
-      <c r="Y35" s="22" t="s">
+      <c r="Z35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA35" s="24">
+        <f>_input!$G12</f>
+        <v>-5.9173878304317973E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A36" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="2:25">
-      <c r="B36" s="44"/>
-      <c r="C36" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="35">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33">
         <f>_input!$B13</f>
         <v>3344110</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="28">
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="35">
         <f>_input!$C13</f>
         <v>3224110</v>
       </c>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
       <c r="Q36" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R36" s="23">
+      <c r="R36" s="22">
         <f>_input!$F13</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S36" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T36" s="28">
+        <v>65</v>
+      </c>
+      <c r="T36" s="24">
+        <f>_input!$F13</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U36" s="47">
         <f>_input!$D13</f>
         <v>3674440</v>
       </c>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X36" s="23">
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y36" s="22">
         <f>_input!$G13</f>
         <v>-8.9899413243922921E-2</v>
       </c>
-      <c r="Y36" s="22" t="s">
+      <c r="Z36" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA36" s="24">
+        <f>_input!$G13</f>
+        <v>-8.9899413243922921E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A37" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="2:25">
-      <c r="B37" s="44"/>
-      <c r="C37" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="35">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33">
         <f>_input!$B14</f>
         <v>3344110</v>
       </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="28">
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="35">
         <f>_input!$C14</f>
         <v>3224110</v>
       </c>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
       <c r="Q37" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R37" s="23">
+      <c r="R37" s="22">
         <f>_input!$F14</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S37" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T37" s="28">
+        <v>65</v>
+      </c>
+      <c r="T37" s="24">
+        <f>_input!$F14</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U37" s="47">
         <f>_input!$D14</f>
         <v>3334440</v>
       </c>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X37" s="23">
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y37" s="22">
         <f>_input!$G14</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y37" s="22" t="s">
+      <c r="Z37" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA37" s="24">
+        <f>_input!$G14</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A38" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="2:25">
-      <c r="B38" s="44"/>
-      <c r="C38" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="35">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33">
         <f>_input!$B15</f>
         <v>3344110</v>
       </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="28">
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="35">
         <f>_input!$C15</f>
         <v>3524110</v>
       </c>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
       <c r="Q38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R38" s="23">
+      <c r="R38" s="22">
         <f>_input!$F15</f>
         <v>-5.1076725754871433E-2</v>
       </c>
       <c r="S38" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T38" s="28">
+        <v>65</v>
+      </c>
+      <c r="T38" s="24">
+        <f>_input!$F15</f>
+        <v>-5.1076725754871433E-2</v>
+      </c>
+      <c r="U38" s="47">
         <f>_input!$D15</f>
         <v>3544440</v>
       </c>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X38" s="23">
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y38" s="22">
         <f>_input!$G15</f>
         <v>-5.65195066075318E-2</v>
       </c>
-      <c r="Y38" s="22" t="s">
+      <c r="Z38" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA38" s="24">
+        <f>_input!$G15</f>
+        <v>-5.65195066075318E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A39" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="2:25">
-      <c r="B39" s="44"/>
-      <c r="C39" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="35">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33">
         <f>_input!$B16</f>
         <v>3344110</v>
       </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="28">
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="35">
         <f>_input!$C16</f>
         <v>3224110</v>
       </c>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
       <c r="Q39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R39" s="23">
+      <c r="R39" s="22">
         <f>_input!$F16</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T39" s="28">
+        <v>65</v>
+      </c>
+      <c r="T39" s="24">
+        <f>_input!$F16</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U39" s="47">
         <f>_input!$D16</f>
         <v>3334440</v>
       </c>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X39" s="23">
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y39" s="22">
         <f>_input!$G16</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y39" s="22" t="s">
+      <c r="Z39" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA39" s="24">
+        <f>_input!$G16</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="2:25">
-      <c r="B40" s="44"/>
-      <c r="C40" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="35">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33">
         <f>_input!$B17</f>
         <v>3344110</v>
       </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="28">
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="35">
         <f>_input!$C17</f>
         <v>3224110</v>
       </c>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
       <c r="Q40" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R40" s="23">
+      <c r="R40" s="22">
         <f>_input!$F17</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S40" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T40" s="28">
+        <v>65</v>
+      </c>
+      <c r="T40" s="24">
+        <f>_input!$F17</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U40" s="47">
         <f>_input!$D17</f>
         <v>3334440</v>
       </c>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X40" s="23">
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y40" s="22">
         <f>_input!$G17</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y40" s="22" t="s">
+      <c r="Z40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA40" s="24">
+        <f>_input!$G17</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A41" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="2:25">
-      <c r="B41" s="44"/>
-      <c r="C41" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="35">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33">
         <f>_input!$B18</f>
         <v>3484110</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="28">
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="35">
         <f>_input!$C18</f>
         <v>3224110</v>
       </c>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
       <c r="Q41" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R41" s="23">
+      <c r="R41" s="22">
         <f>_input!$F18</f>
         <v>8.0642409843336704E-2</v>
       </c>
       <c r="S41" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T41" s="28">
+        <v>65</v>
+      </c>
+      <c r="T41" s="24">
+        <f>_input!$F18</f>
+        <v>8.0642409843336704E-2</v>
+      </c>
+      <c r="U41" s="47">
         <f>_input!$D18</f>
         <v>3344440</v>
       </c>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X41" s="23">
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y41" s="22">
         <f>_input!$G18</f>
         <v>4.1761849517407912E-2</v>
       </c>
-      <c r="Y41" s="22" t="s">
+      <c r="Z41" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA41" s="24">
+        <f>_input!$G18</f>
+        <v>4.1761849517407912E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A42" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="2:25">
-      <c r="B42" s="44"/>
-      <c r="C42" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="35">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33">
         <f>_input!$B19</f>
         <v>3344110</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="28">
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="35">
         <f>_input!$C19</f>
         <v>3224110</v>
       </c>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
       <c r="Q42" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R42" s="23">
+      <c r="R42" s="22">
         <f>_input!$F19</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S42" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T42" s="28">
+        <v>65</v>
+      </c>
+      <c r="T42" s="24">
+        <f>_input!$F19</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U42" s="47">
         <f>_input!$D19</f>
         <v>3334440</v>
       </c>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X42" s="23">
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y42" s="22">
         <f>_input!$G19</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y42" s="22" t="s">
+      <c r="Z42" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA42" s="24">
+        <f>_input!$G19</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A43" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="2:25">
-      <c r="B43" s="44"/>
-      <c r="C43" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="35">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33">
         <f>_input!$B20</f>
         <v>3344110</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="28">
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="35">
         <f>_input!$C20</f>
         <v>3224110</v>
       </c>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
       <c r="Q43" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="23">
+      <c r="R43" s="22">
         <f>_input!$F20</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S43" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T43" s="28">
+        <v>65</v>
+      </c>
+      <c r="T43" s="24">
+        <f>_input!$F20</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U43" s="47">
         <f>_input!$D20</f>
         <v>3544440</v>
       </c>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X43" s="23">
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y43" s="22">
         <f>_input!$G20</f>
         <v>-5.65195066075318E-2</v>
       </c>
-      <c r="Y43" s="22" t="s">
+      <c r="Z43" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA43" s="24">
+        <f>_input!$G20</f>
+        <v>-5.65195066075318E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A44" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="2:25">
-      <c r="B44" s="44"/>
-      <c r="C44" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="35">
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33">
         <f>_input!$B21</f>
         <v>3344110</v>
       </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="28">
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="35">
         <f>_input!$C21</f>
         <v>3434110</v>
       </c>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
       <c r="Q44" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R44" s="23">
+      <c r="R44" s="22">
         <f>_input!$F21</f>
         <v>-2.6207663703259332E-2</v>
       </c>
       <c r="S44" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T44" s="28">
+        <v>65</v>
+      </c>
+      <c r="T44" s="24">
+        <f>_input!$F21</f>
+        <v>-2.6207663703259332E-2</v>
+      </c>
+      <c r="U44" s="47">
         <f>_input!$D21</f>
         <v>3334440</v>
       </c>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X44" s="23">
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y44" s="22">
         <f>_input!$G21</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y44" s="22" t="s">
+      <c r="Z44" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA44" s="24">
+        <f>_input!$G21</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A45" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="2:25">
-      <c r="B45" s="44"/>
-      <c r="C45" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="35">
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33">
         <f>_input!$B22</f>
         <v>3344110</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="28">
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="35">
         <f>_input!$C22</f>
         <v>3224110</v>
       </c>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
       <c r="Q45" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R45" s="23">
+      <c r="R45" s="22">
         <f>_input!$F22</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S45" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T45" s="28">
+        <v>65</v>
+      </c>
+      <c r="T45" s="24">
+        <f>_input!$F22</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U45" s="47">
         <f>_input!$D22</f>
         <v>3334440</v>
       </c>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X45" s="23">
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y45" s="22">
         <f>_input!$G22</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y45" s="22" t="s">
+      <c r="Z45" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA45" s="24">
+        <f>_input!$G22</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A46" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="2:25">
-      <c r="B46" s="44"/>
-      <c r="C46" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="35">
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33">
         <f>_input!$B23</f>
         <v>3344110</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="28">
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="35">
         <f>_input!$C23</f>
         <v>3224110</v>
       </c>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
       <c r="Q46" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R46" s="23">
+      <c r="R46" s="22">
         <f>_input!$F23</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S46" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T46" s="28">
+        <v>65</v>
+      </c>
+      <c r="T46" s="24">
+        <f>_input!$F23</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U46" s="47">
         <f>_input!$D23</f>
         <v>3334440</v>
       </c>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X46" s="23">
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y46" s="22">
         <f>_input!$G23</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y46" s="22" t="s">
+      <c r="Z46" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA46" s="24">
+        <f>_input!$G23</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A47" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="2:25">
-      <c r="B47" s="44"/>
-      <c r="C47" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="35">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33">
         <f>_input!$B24</f>
         <v>2144110</v>
       </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="28">
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="35">
         <f>_input!$C24</f>
         <v>3224110</v>
       </c>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
       <c r="Q47" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R47" s="23">
+      <c r="R47" s="22">
         <f>_input!$F24</f>
         <v>-0.33497616396462904</v>
       </c>
       <c r="S47" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T47" s="28">
+        <v>65</v>
+      </c>
+      <c r="T47" s="24">
+        <f>_input!$F24</f>
+        <v>-0.33497616396462904</v>
+      </c>
+      <c r="U47" s="47">
         <f>_input!$D24</f>
         <v>3334440</v>
       </c>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X47" s="23">
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y47" s="22">
         <f>_input!$G24</f>
         <v>-0.35698048247981673</v>
       </c>
-      <c r="Y47" s="22" t="s">
+      <c r="Z47" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA47" s="24">
+        <f>_input!$G24</f>
+        <v>-0.35698048247981673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A48" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="2:25">
-      <c r="B48" s="44"/>
-      <c r="C48" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="35">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33">
         <f>_input!$B25</f>
         <v>3344110</v>
       </c>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="28">
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="35">
         <f>_input!$C25</f>
         <v>3224110</v>
       </c>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
       <c r="Q48" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R48" s="23">
+      <c r="R48" s="22">
         <f>_input!$F25</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S48" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T48" s="28">
+        <v>65</v>
+      </c>
+      <c r="T48" s="24">
+        <f>_input!$F25</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U48" s="47">
         <f>_input!$D25</f>
         <v>3334440</v>
       </c>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X48" s="23">
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y48" s="22">
         <f>_input!$G25</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y48" s="22" t="s">
+      <c r="Z48" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA48" s="24">
+        <f>_input!$G25</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A49" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="2:25">
-      <c r="B49" s="44"/>
-      <c r="C49" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="35">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="33">
         <f>_input!$B26</f>
         <v>3344110</v>
       </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="28">
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="35">
         <f>_input!$C26</f>
         <v>3224110</v>
       </c>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
       <c r="Q49" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R49" s="23">
+      <c r="R49" s="22">
         <f>_input!$F26</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S49" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T49" s="28">
+        <v>65</v>
+      </c>
+      <c r="T49" s="24">
+        <f>_input!$F26</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U49" s="47">
         <f>_input!$D26</f>
         <v>3334440</v>
       </c>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X49" s="23">
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y49" s="22">
         <f>_input!$G26</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y49" s="22" t="s">
+      <c r="Z49" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA49" s="24">
+        <f>_input!$G26</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A50" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="2:25">
-      <c r="B50" s="44"/>
-      <c r="C50" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="35">
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33">
         <f>_input!$B27</f>
         <v>3344110</v>
       </c>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="28">
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="35">
         <f>_input!$C27</f>
         <v>3994110</v>
       </c>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
       <c r="Q50" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R50" s="23">
+      <c r="R50" s="22">
         <f>_input!$F27</f>
         <v>-0.16273963411122883</v>
       </c>
       <c r="S50" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T50" s="28">
+        <v>65</v>
+      </c>
+      <c r="T50" s="24">
+        <f>_input!$F27</f>
+        <v>-0.16273963411122883</v>
+      </c>
+      <c r="U50" s="47">
         <f>_input!$D27</f>
         <v>3334440</v>
       </c>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X50" s="23">
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y50" s="22">
         <f>_input!$G27</f>
         <v>2.9000371876537478E-3</v>
       </c>
-      <c r="Y50" s="22" t="s">
+      <c r="Z50" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA50" s="24">
+        <f>_input!$G27</f>
+        <v>2.9000371876537478E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A51" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="2:25">
-      <c r="B51" s="44"/>
-      <c r="C51" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="35">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="33">
         <f>_input!$B28</f>
         <v>3344110</v>
       </c>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="28">
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="35">
         <f>_input!$C28</f>
         <v>3224110</v>
       </c>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
       <c r="Q51" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R51" s="23">
+      <c r="R51" s="22">
         <f>_input!$F28</f>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="S51" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="T51" s="28">
+        <v>65</v>
+      </c>
+      <c r="T51" s="24">
+        <f>_input!$F28</f>
+        <v>3.7219573773847658E-2</v>
+      </c>
+      <c r="U51" s="47">
         <f>_input!$D28</f>
         <v>3214440</v>
       </c>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X51" s="23">
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y51" s="22">
         <f>_input!$G28</f>
         <v>4.0339841465387494E-2</v>
       </c>
-      <c r="Y51" s="22" t="s">
-        <v>57</v>
+      <c r="Z51" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA51" s="24">
+        <f>_input!$G28</f>
+        <v>4.0339841465387494E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="U27:AA27"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="N27:T27"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
@@ -3484,106 +3839,24 @@
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T29:V29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="R28:R51">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="T28:T51">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R28:R51">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X28:X51">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X28:X51">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AA28:AA51">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3679,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
@@ -3687,7 +3960,7 @@
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -3696,7 +3969,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -3704,7 +3977,7 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -3713,7 +3986,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -3721,7 +3994,7 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -3762,7 +4035,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">

--- a/trunk/rill-analysis/rill-analysis-report/src/test/resources/test-luopan-rt.xlsx
+++ b/trunk/rill-analysis/rill-analysis-report/src/test/resources/test-luopan-rt.xlsx
@@ -902,12 +902,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,9 +940,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1152,80 +1152,80 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>_input!$A$5:$A$28</c:f>
+              <c:f>_input!$E$5:$E$28</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0:00</c:v>
+                  <c:v>1:00</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1:00</c:v>
+                  <c:v>2:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2:00</c:v>
+                  <c:v>3:00</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3:00</c:v>
+                  <c:v>4:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4:00</c:v>
+                  <c:v>5:00</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5:00</c:v>
+                  <c:v>6:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6:00</c:v>
+                  <c:v>7:00</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7:00</c:v>
+                  <c:v>8:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8:00</c:v>
+                  <c:v>9:00</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9:00</c:v>
+                  <c:v>10:00</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10:00</c:v>
+                  <c:v>11:00</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11:00</c:v>
+                  <c:v>12:00</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12:00</c:v>
+                  <c:v>13:00</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13:00</c:v>
+                  <c:v>14:00</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14:00</c:v>
+                  <c:v>15:00</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15:00</c:v>
+                  <c:v>16:00</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16:00</c:v>
+                  <c:v>17:00</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17:00</c:v>
+                  <c:v>18:00</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18:00</c:v>
+                  <c:v>19:00</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19:00</c:v>
+                  <c:v>20:00</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20:00</c:v>
+                  <c:v>21:00</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21:00</c:v>
+                  <c:v>22:00</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22:00</c:v>
+                  <c:v>23:00</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23:00</c:v>
+                  <c:v>24:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1328,80 +1328,80 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>_input!$A$5:$A$28</c:f>
+              <c:f>_input!$E$5:$E$28</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0:00</c:v>
+                  <c:v>1:00</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1:00</c:v>
+                  <c:v>2:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2:00</c:v>
+                  <c:v>3:00</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3:00</c:v>
+                  <c:v>4:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4:00</c:v>
+                  <c:v>5:00</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5:00</c:v>
+                  <c:v>6:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6:00</c:v>
+                  <c:v>7:00</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7:00</c:v>
+                  <c:v>8:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8:00</c:v>
+                  <c:v>9:00</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9:00</c:v>
+                  <c:v>10:00</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10:00</c:v>
+                  <c:v>11:00</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11:00</c:v>
+                  <c:v>12:00</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12:00</c:v>
+                  <c:v>13:00</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13:00</c:v>
+                  <c:v>14:00</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14:00</c:v>
+                  <c:v>15:00</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15:00</c:v>
+                  <c:v>16:00</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16:00</c:v>
+                  <c:v>17:00</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17:00</c:v>
+                  <c:v>18:00</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18:00</c:v>
+                  <c:v>19:00</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19:00</c:v>
+                  <c:v>20:00</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20:00</c:v>
+                  <c:v>21:00</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21:00</c:v>
+                  <c:v>22:00</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22:00</c:v>
+                  <c:v>23:00</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23:00</c:v>
+                  <c:v>24:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1504,80 +1504,80 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>_input!$A$5:$A$28</c:f>
+              <c:f>_input!$E$5:$E$28</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0:00</c:v>
+                  <c:v>1:00</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1:00</c:v>
+                  <c:v>2:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2:00</c:v>
+                  <c:v>3:00</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3:00</c:v>
+                  <c:v>4:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4:00</c:v>
+                  <c:v>5:00</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5:00</c:v>
+                  <c:v>6:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6:00</c:v>
+                  <c:v>7:00</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7:00</c:v>
+                  <c:v>8:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8:00</c:v>
+                  <c:v>9:00</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9:00</c:v>
+                  <c:v>10:00</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10:00</c:v>
+                  <c:v>11:00</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11:00</c:v>
+                  <c:v>12:00</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12:00</c:v>
+                  <c:v>13:00</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13:00</c:v>
+                  <c:v>14:00</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14:00</c:v>
+                  <c:v>15:00</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15:00</c:v>
+                  <c:v>16:00</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16:00</c:v>
+                  <c:v>17:00</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17:00</c:v>
+                  <c:v>18:00</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18:00</c:v>
+                  <c:v>19:00</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19:00</c:v>
+                  <c:v>20:00</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20:00</c:v>
+                  <c:v>21:00</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21:00</c:v>
+                  <c:v>22:00</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22:00</c:v>
+                  <c:v>23:00</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23:00</c:v>
+                  <c:v>24:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1665,11 +1665,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78081024"/>
-        <c:axId val="78099200"/>
+        <c:axId val="78801536"/>
+        <c:axId val="78819712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78081024"/>
+        <c:axId val="78801536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,14 +1678,14 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78099200"/>
+        <c:crossAx val="78819712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78099200"/>
+        <c:axId val="78819712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1694,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78081024"/>
+        <c:crossAx val="78801536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,7 +1712,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000844" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000844" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000866" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000866" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2082,17 +2082,17 @@
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="43" t="str">
         <f>_input!$A2&amp;"+"&amp;_input!$A3&amp;"+趋势图"</f>
         <v>商业产品线+分析指标+趋势图</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="2:17">
@@ -2165,17 +2165,17 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="B24" s="42" t="str">
+      <c r="B24" s="43" t="str">
         <f>_input!$B3&amp;"分小时数据表"</f>
         <v>点击消费分小时数据表</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
       <c r="Q24" s="5"/>
       <c r="V24" t="s">
         <v>24</v>
@@ -2211,22 +2211,22 @@
       <c r="AA26" s="20"/>
     </row>
     <row r="27" spans="1:27" ht="35.25" customHeight="1">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="37" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="27" t="s">
         <v>54</v>
       </c>
@@ -2236,15 +2236,15 @@
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
       <c r="T27" s="29"/>
-      <c r="U27" s="40" t="s">
+      <c r="U27" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="41"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="42"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1">
       <c r="A28" s="26" t="s">
@@ -2267,7 +2267,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="23"/>
-      <c r="N28" s="35">
+      <c r="N28" s="37">
         <f>_input!$C5</f>
         <v>3224110</v>
       </c>
@@ -2287,7 +2287,7 @@
         <f>_input!$F5</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U28" s="47">
+      <c r="U28" s="35">
         <f>_input!$D5</f>
         <v>3334440</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="23"/>
-      <c r="N29" s="35">
+      <c r="N29" s="37">
         <f>_input!$C6</f>
         <v>4343110</v>
       </c>
@@ -2349,7 +2349,7 @@
         <f>_input!$F6</f>
         <v>-0.23485474694401021</v>
       </c>
-      <c r="U29" s="47">
+      <c r="U29" s="35">
         <f>_input!$D6</f>
         <v>3323440</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="23"/>
-      <c r="N30" s="35">
+      <c r="N30" s="37">
         <f>_input!$C7</f>
         <v>3224110</v>
       </c>
@@ -2411,7 +2411,7 @@
         <f>_input!$F7</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U30" s="47">
+      <c r="U30" s="35">
         <f>_input!$D7</f>
         <v>3324440</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="23"/>
-      <c r="N31" s="35">
+      <c r="N31" s="37">
         <f>_input!$C8</f>
         <v>3224110</v>
       </c>
@@ -2473,7 +2473,7 @@
         <f>_input!$F8</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U31" s="47">
+      <c r="U31" s="35">
         <f>_input!$D8</f>
         <v>3334440</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="23"/>
-      <c r="N32" s="35">
+      <c r="N32" s="37">
         <f>_input!$C9</f>
         <v>3664110</v>
       </c>
@@ -2535,7 +2535,7 @@
         <f>_input!$F9</f>
         <v>-8.7333622625958229E-2</v>
       </c>
-      <c r="U32" s="47">
+      <c r="U32" s="35">
         <f>_input!$D9</f>
         <v>3244440</v>
       </c>
@@ -2577,7 +2577,7 @@
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="23"/>
-      <c r="N33" s="35">
+      <c r="N33" s="37">
         <f>_input!$C10</f>
         <v>3224110</v>
       </c>
@@ -2597,7 +2597,7 @@
         <f>_input!$F10</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U33" s="47">
+      <c r="U33" s="35">
         <f>_input!$D10</f>
         <v>3334440</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
       <c r="M34" s="23"/>
-      <c r="N34" s="35">
+      <c r="N34" s="37">
         <f>_input!$C11</f>
         <v>4324110</v>
       </c>
@@ -2659,7 +2659,7 @@
         <f>_input!$F11</f>
         <v>4.6252292379240778E-3</v>
       </c>
-      <c r="U34" s="47">
+      <c r="U34" s="35">
         <f>_input!$D11</f>
         <v>3334440</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
       <c r="M35" s="23"/>
-      <c r="N35" s="35">
+      <c r="N35" s="37">
         <f>_input!$C12</f>
         <v>3224110</v>
       </c>
@@ -2721,7 +2721,7 @@
         <f>_input!$F12</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U35" s="47">
+      <c r="U35" s="35">
         <f>_input!$D12</f>
         <v>3554440</v>
       </c>
@@ -2763,7 +2763,7 @@
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
       <c r="M36" s="23"/>
-      <c r="N36" s="35">
+      <c r="N36" s="37">
         <f>_input!$C13</f>
         <v>3224110</v>
       </c>
@@ -2783,7 +2783,7 @@
         <f>_input!$F13</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U36" s="47">
+      <c r="U36" s="35">
         <f>_input!$D13</f>
         <v>3674440</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
       <c r="M37" s="23"/>
-      <c r="N37" s="35">
+      <c r="N37" s="37">
         <f>_input!$C14</f>
         <v>3224110</v>
       </c>
@@ -2845,7 +2845,7 @@
         <f>_input!$F14</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U37" s="47">
+      <c r="U37" s="35">
         <f>_input!$D14</f>
         <v>3334440</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
       <c r="M38" s="23"/>
-      <c r="N38" s="35">
+      <c r="N38" s="37">
         <f>_input!$C15</f>
         <v>3524110</v>
       </c>
@@ -2907,7 +2907,7 @@
         <f>_input!$F15</f>
         <v>-5.1076725754871433E-2</v>
       </c>
-      <c r="U38" s="47">
+      <c r="U38" s="35">
         <f>_input!$D15</f>
         <v>3544440</v>
       </c>
@@ -2949,7 +2949,7 @@
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
       <c r="M39" s="23"/>
-      <c r="N39" s="35">
+      <c r="N39" s="37">
         <f>_input!$C16</f>
         <v>3224110</v>
       </c>
@@ -2969,7 +2969,7 @@
         <f>_input!$F16</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U39" s="47">
+      <c r="U39" s="35">
         <f>_input!$D16</f>
         <v>3334440</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
       <c r="M40" s="23"/>
-      <c r="N40" s="35">
+      <c r="N40" s="37">
         <f>_input!$C17</f>
         <v>3224110</v>
       </c>
@@ -3031,7 +3031,7 @@
         <f>_input!$F17</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U40" s="47">
+      <c r="U40" s="35">
         <f>_input!$D17</f>
         <v>3334440</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="23"/>
-      <c r="N41" s="35">
+      <c r="N41" s="37">
         <f>_input!$C18</f>
         <v>3224110</v>
       </c>
@@ -3093,7 +3093,7 @@
         <f>_input!$F18</f>
         <v>8.0642409843336704E-2</v>
       </c>
-      <c r="U41" s="47">
+      <c r="U41" s="35">
         <f>_input!$D18</f>
         <v>3344440</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="23"/>
-      <c r="N42" s="35">
+      <c r="N42" s="37">
         <f>_input!$C19</f>
         <v>3224110</v>
       </c>
@@ -3155,7 +3155,7 @@
         <f>_input!$F19</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U42" s="47">
+      <c r="U42" s="35">
         <f>_input!$D19</f>
         <v>3334440</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="23"/>
-      <c r="N43" s="35">
+      <c r="N43" s="37">
         <f>_input!$C20</f>
         <v>3224110</v>
       </c>
@@ -3217,7 +3217,7 @@
         <f>_input!$F20</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U43" s="47">
+      <c r="U43" s="35">
         <f>_input!$D20</f>
         <v>3544440</v>
       </c>
@@ -3259,7 +3259,7 @@
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
       <c r="M44" s="23"/>
-      <c r="N44" s="35">
+      <c r="N44" s="37">
         <f>_input!$C21</f>
         <v>3434110</v>
       </c>
@@ -3279,7 +3279,7 @@
         <f>_input!$F21</f>
         <v>-2.6207663703259332E-2</v>
       </c>
-      <c r="U44" s="47">
+      <c r="U44" s="35">
         <f>_input!$D21</f>
         <v>3334440</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
       <c r="M45" s="23"/>
-      <c r="N45" s="35">
+      <c r="N45" s="37">
         <f>_input!$C22</f>
         <v>3224110</v>
       </c>
@@ -3341,7 +3341,7 @@
         <f>_input!$F22</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U45" s="47">
+      <c r="U45" s="35">
         <f>_input!$D22</f>
         <v>3334440</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
       <c r="M46" s="23"/>
-      <c r="N46" s="35">
+      <c r="N46" s="37">
         <f>_input!$C23</f>
         <v>3224110</v>
       </c>
@@ -3403,7 +3403,7 @@
         <f>_input!$F23</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U46" s="47">
+      <c r="U46" s="35">
         <f>_input!$D23</f>
         <v>3334440</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
       <c r="M47" s="23"/>
-      <c r="N47" s="35">
+      <c r="N47" s="37">
         <f>_input!$C24</f>
         <v>3224110</v>
       </c>
@@ -3465,7 +3465,7 @@
         <f>_input!$F24</f>
         <v>-0.33497616396462904</v>
       </c>
-      <c r="U47" s="47">
+      <c r="U47" s="35">
         <f>_input!$D24</f>
         <v>3334440</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="23"/>
-      <c r="N48" s="35">
+      <c r="N48" s="37">
         <f>_input!$C25</f>
         <v>3224110</v>
       </c>
@@ -3527,7 +3527,7 @@
         <f>_input!$F25</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U48" s="47">
+      <c r="U48" s="35">
         <f>_input!$D25</f>
         <v>3334440</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
       <c r="M49" s="23"/>
-      <c r="N49" s="35">
+      <c r="N49" s="37">
         <f>_input!$C26</f>
         <v>3224110</v>
       </c>
@@ -3589,7 +3589,7 @@
         <f>_input!$F26</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U49" s="47">
+      <c r="U49" s="35">
         <f>_input!$D26</f>
         <v>3334440</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
       <c r="M50" s="23"/>
-      <c r="N50" s="35">
+      <c r="N50" s="37">
         <f>_input!$C27</f>
         <v>3994110</v>
       </c>
@@ -3651,7 +3651,7 @@
         <f>_input!$F27</f>
         <v>-0.16273963411122883</v>
       </c>
-      <c r="U50" s="47">
+      <c r="U50" s="35">
         <f>_input!$D27</f>
         <v>3334440</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
       <c r="M51" s="23"/>
-      <c r="N51" s="35">
+      <c r="N51" s="37">
         <f>_input!$C28</f>
         <v>3224110</v>
       </c>
@@ -3713,7 +3713,7 @@
         <f>_input!$F28</f>
         <v>3.7219573773847658E-2</v>
       </c>
-      <c r="U51" s="47">
+      <c r="U51" s="35">
         <f>_input!$D28</f>
         <v>3214440</v>
       </c>
@@ -4027,7 +4027,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
@@ -4081,6 +4081,10 @@
       <c r="D5" s="3">
         <v>3334440</v>
       </c>
+      <c r="E5" s="18" t="str">
+        <f>(VALUE(LEFT($A5,LEN($A5)-3)) + 1) &amp;":00"</f>
+        <v>1:00</v>
+      </c>
       <c r="F5" s="19">
         <f>$B5/$C5-1</f>
         <v>3.7219573773847658E-2</v>
@@ -4103,12 +4107,16 @@
       <c r="D6" s="3">
         <v>3323440</v>
       </c>
+      <c r="E6" s="18" t="str">
+        <f t="shared" ref="E6:E28" si="0">(VALUE(LEFT($A6,LEN($A6)-3)) + 1) &amp;":00"</f>
+        <v>2:00</v>
+      </c>
       <c r="F6" s="19">
-        <f t="shared" ref="F6:F28" si="0">$B6/$C6-1</f>
+        <f t="shared" ref="F6:F28" si="1">$B6/$C6-1</f>
         <v>-0.23485474694401021</v>
       </c>
       <c r="G6" s="19">
-        <f t="shared" ref="G6:G28" si="1">$B6/$D6-1</f>
+        <f t="shared" ref="G6:G28" si="2">$B6/$D6-1</f>
         <v>-9.9294706689456724E-5</v>
       </c>
     </row>
@@ -4125,12 +4133,16 @@
       <c r="D7" s="3">
         <v>3324440</v>
       </c>
+      <c r="E7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>3:00</v>
+      </c>
       <c r="F7" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G7" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9167859850079996E-3</v>
       </c>
     </row>
@@ -4147,12 +4159,16 @@
       <c r="D8" s="3">
         <v>3334440</v>
       </c>
+      <c r="E8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>4:00</v>
+      </c>
       <c r="F8" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4169,12 +4185,16 @@
       <c r="D9" s="3">
         <v>3244440</v>
       </c>
+      <c r="E9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>5:00</v>
+      </c>
       <c r="F9" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.7333622625958229E-2</v>
       </c>
       <c r="G9" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0720247561982994E-2</v>
       </c>
     </row>
@@ -4191,12 +4211,16 @@
       <c r="D10" s="3">
         <v>3334440</v>
       </c>
+      <c r="E10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>6:00</v>
+      </c>
       <c r="F10" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G10" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4213,12 +4237,16 @@
       <c r="D11" s="3">
         <v>3334440</v>
       </c>
+      <c r="E11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
       <c r="F11" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6252292379240778E-3</v>
       </c>
       <c r="G11" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30280047024387913</v>
       </c>
     </row>
@@ -4235,12 +4263,16 @@
       <c r="D12" s="3">
         <v>3554440</v>
       </c>
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>8:00</v>
+      </c>
       <c r="F12" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G12" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.9173878304317973E-2</v>
       </c>
     </row>
@@ -4257,12 +4289,16 @@
       <c r="D13" s="3">
         <v>3674440</v>
       </c>
+      <c r="E13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>9:00</v>
+      </c>
       <c r="F13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.9899413243922921E-2</v>
       </c>
     </row>
@@ -4279,12 +4315,16 @@
       <c r="D14" s="3">
         <v>3334440</v>
       </c>
+      <c r="E14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10:00</v>
+      </c>
       <c r="F14" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G14" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4301,12 +4341,16 @@
       <c r="D15" s="3">
         <v>3544440</v>
       </c>
+      <c r="E15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>11:00</v>
+      </c>
       <c r="F15" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.1076725754871433E-2</v>
       </c>
       <c r="G15" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.65195066075318E-2</v>
       </c>
     </row>
@@ -4323,12 +4367,16 @@
       <c r="D16" s="3">
         <v>3334440</v>
       </c>
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>12:00</v>
+      </c>
       <c r="F16" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G16" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4345,12 +4393,16 @@
       <c r="D17" s="3">
         <v>3334440</v>
       </c>
+      <c r="E17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>13:00</v>
+      </c>
       <c r="F17" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G17" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4367,12 +4419,16 @@
       <c r="D18" s="3">
         <v>3344440</v>
       </c>
+      <c r="E18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>14:00</v>
+      </c>
       <c r="F18" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0642409843336704E-2</v>
       </c>
       <c r="G18" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1761849517407912E-2</v>
       </c>
     </row>
@@ -4389,12 +4445,16 @@
       <c r="D19" s="3">
         <v>3334440</v>
       </c>
+      <c r="E19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>15:00</v>
+      </c>
       <c r="F19" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G19" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4411,12 +4471,16 @@
       <c r="D20" s="3">
         <v>3544440</v>
       </c>
+      <c r="E20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>16:00</v>
+      </c>
       <c r="F20" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.65195066075318E-2</v>
       </c>
     </row>
@@ -4433,12 +4497,16 @@
       <c r="D21" s="3">
         <v>3334440</v>
       </c>
+      <c r="E21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>17:00</v>
+      </c>
       <c r="F21" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.6207663703259332E-2</v>
       </c>
       <c r="G21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4455,12 +4523,16 @@
       <c r="D22" s="3">
         <v>3334440</v>
       </c>
+      <c r="E22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>18:00</v>
+      </c>
       <c r="F22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4477,12 +4549,16 @@
       <c r="D23" s="3">
         <v>3334440</v>
       </c>
+      <c r="E23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>19:00</v>
+      </c>
       <c r="F23" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4499,12 +4575,16 @@
       <c r="D24" s="3">
         <v>3334440</v>
       </c>
+      <c r="E24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>20:00</v>
+      </c>
       <c r="F24" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.33497616396462904</v>
       </c>
       <c r="G24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.35698048247981673</v>
       </c>
     </row>
@@ -4521,12 +4601,16 @@
       <c r="D25" s="3">
         <v>3334440</v>
       </c>
+      <c r="E25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>21:00</v>
+      </c>
       <c r="F25" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4543,12 +4627,16 @@
       <c r="D26" s="3">
         <v>3334440</v>
       </c>
+      <c r="E26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>22:00</v>
+      </c>
       <c r="F26" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4565,12 +4653,16 @@
       <c r="D27" s="3">
         <v>3334440</v>
       </c>
+      <c r="E27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>23:00</v>
+      </c>
       <c r="F27" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.16273963411122883</v>
       </c>
       <c r="G27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9000371876537478E-3</v>
       </c>
     </row>
@@ -4587,12 +4679,16 @@
       <c r="D28" s="3">
         <v>3214440</v>
       </c>
+      <c r="E28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>24:00</v>
+      </c>
       <c r="F28" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7219573773847658E-2</v>
       </c>
       <c r="G28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0339841465387494E-2</v>
       </c>
     </row>
